--- a/TradeSimulation/report/THAIRally21.xlsx
+++ b/TradeSimulation/report/THAIRally21.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="TotalPort" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="TISCOMS-A" sheetId="3" r:id="rId3"/>
+    <sheet name="KFDYNAMIC" sheetId="3" r:id="rId3"/>
     <sheet name="TSF-A" sheetId="4" r:id="rId4"/>
     <sheet name="TISCOFLEXP" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -47,7 +47,7 @@
     <t>TISCOFLEXP</t>
   </si>
   <si>
-    <t>TISCOMS-A</t>
+    <t>KFDYNAMIC</t>
   </si>
   <si>
     <t>TSF-A</t>
@@ -485,13 +485,13 @@
         <v>300000</v>
       </c>
       <c r="B2">
-        <v>381102</v>
+        <v>382961</v>
       </c>
       <c r="C2">
-        <v>81102</v>
+        <v>82961</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -561,19 +561,19 @@
         <v>100000</v>
       </c>
       <c r="C3">
-        <v>17.4</v>
+        <v>29.62</v>
       </c>
       <c r="D3">
-        <v>125428</v>
+        <v>127287</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>25428</v>
+        <v>27287</v>
       </c>
       <c r="G3">
-        <v>25.43</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -658,7 +658,7 @@
         <v>44160</v>
       </c>
       <c r="B2">
-        <v>16.16</v>
+        <v>28.98</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -667,13 +667,13 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>16.32</v>
+        <v>29.12</v>
       </c>
       <c r="G2">
-        <v>1531.862745098039</v>
+        <v>858.5164835164835</v>
       </c>
       <c r="H2">
         <v>25000</v>
@@ -682,16 +682,16 @@
         <v>25000</v>
       </c>
       <c r="J2">
-        <v>1531.862745098039</v>
+        <v>858.5164835164835</v>
       </c>
       <c r="K2">
         <v>25000</v>
       </c>
       <c r="L2">
-        <v>1531.862745098039</v>
+        <v>858.5164835164835</v>
       </c>
       <c r="M2">
-        <v>16.32</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -699,7 +699,7 @@
         <v>44195</v>
       </c>
       <c r="B3">
-        <v>16.82</v>
+        <v>28.7</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -708,13 +708,13 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>16.99</v>
+        <v>28.84</v>
       </c>
       <c r="G3">
-        <v>1471.453796350795</v>
+        <v>866.8515950069349</v>
       </c>
       <c r="H3">
         <v>25000</v>
@@ -723,16 +723,16 @@
         <v>25000</v>
       </c>
       <c r="J3">
-        <v>1471.453796350795</v>
+        <v>866.8515950069349</v>
       </c>
       <c r="K3">
         <v>50000</v>
       </c>
       <c r="L3">
-        <v>3003.316541448834</v>
+        <v>1725.368078523418</v>
       </c>
       <c r="M3">
-        <v>16.65</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -740,7 +740,7 @@
         <v>44211</v>
       </c>
       <c r="B4">
-        <v>17.45</v>
+        <v>30.14</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -749,13 +749,13 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>17.62</v>
+        <v>30.29</v>
       </c>
       <c r="G4">
-        <v>1418.842224744608</v>
+        <v>825.3549026081215</v>
       </c>
       <c r="H4">
         <v>25000</v>
@@ -764,16 +764,16 @@
         <v>25000</v>
       </c>
       <c r="J4">
-        <v>1418.842224744608</v>
+        <v>825.3549026081215</v>
       </c>
       <c r="K4">
         <v>75000</v>
       </c>
       <c r="L4">
-        <v>4422.158766193443</v>
+        <v>2550.72298113154</v>
       </c>
       <c r="M4">
-        <v>16.96</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -781,7 +781,7 @@
         <v>44232</v>
       </c>
       <c r="B5">
-        <v>18.68</v>
+        <v>30.14</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -790,13 +790,13 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>18.87</v>
+        <v>30.29</v>
       </c>
       <c r="G5">
-        <v>1324.854266030737</v>
+        <v>825.3549026081215</v>
       </c>
       <c r="H5">
         <v>25000</v>
@@ -805,16 +805,16 @@
         <v>25000</v>
       </c>
       <c r="J5">
-        <v>1324.854266030737</v>
+        <v>825.3549026081215</v>
       </c>
       <c r="K5">
         <v>100000</v>
       </c>
       <c r="L5">
-        <v>5747.013032224179</v>
+        <v>3376.077883739661</v>
       </c>
       <c r="M5">
-        <v>17.4</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -822,7 +822,7 @@
         <v>44501</v>
       </c>
       <c r="B6">
-        <v>21.35</v>
+        <v>38.02</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -831,31 +831,31 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>21.35</v>
+        <v>37.83</v>
       </c>
       <c r="G6">
-        <v>2873.50651611209</v>
+        <v>1688.038941869831</v>
       </c>
       <c r="H6">
-        <v>61349</v>
+        <v>63859</v>
       </c>
       <c r="I6">
-        <v>-61349</v>
+        <v>-63859</v>
       </c>
       <c r="J6">
-        <v>-2873.50651611209</v>
+        <v>-1688.038941869831</v>
       </c>
       <c r="K6">
-        <v>38651</v>
+        <v>36141</v>
       </c>
       <c r="L6">
-        <v>2873.50651611209</v>
+        <v>1688.038941869831</v>
       </c>
       <c r="M6">
-        <v>13.45</v>
+        <v>21.41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -863,7 +863,7 @@
         <v>44531</v>
       </c>
       <c r="B7">
-        <v>22.23</v>
+        <v>37.11</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -872,31 +872,31 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>22.23</v>
+        <v>36.92</v>
       </c>
       <c r="G7">
-        <v>1436.753258056045</v>
+        <v>844.0194709349153</v>
       </c>
       <c r="H7">
-        <v>31939</v>
+        <v>31161</v>
       </c>
       <c r="I7">
-        <v>-31939</v>
+        <v>-31161</v>
       </c>
       <c r="J7">
-        <v>-1436.753258056045</v>
+        <v>-844.0194709349153</v>
       </c>
       <c r="K7">
-        <v>6712</v>
+        <v>4980</v>
       </c>
       <c r="L7">
-        <v>1436.753258056045</v>
+        <v>844.0194709349153</v>
       </c>
       <c r="M7">
-        <v>4.67</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -904,7 +904,7 @@
         <v>44593</v>
       </c>
       <c r="B8">
-        <v>22.37</v>
+        <v>38.42</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -913,25 +913,25 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>22.37</v>
+        <v>38.23</v>
       </c>
       <c r="G8">
-        <v>1436.753258056045</v>
+        <v>844.0194709349153</v>
       </c>
       <c r="H8">
-        <v>32140</v>
+        <v>32267</v>
       </c>
       <c r="I8">
-        <v>-32140</v>
+        <v>-32267</v>
       </c>
       <c r="J8">
-        <v>-1436.753258056045</v>
+        <v>-844.0194709349153</v>
       </c>
       <c r="K8">
-        <v>-25428</v>
+        <v>-27287</v>
       </c>
       <c r="L8">
         <v>0</v>
